--- a/biology/Médecine/Tubercule_articulaire_du_processus_zygomatique_de_l'os_temporal/Tubercule_articulaire_du_processus_zygomatique_de_l'os_temporal.xlsx
+++ b/biology/Médecine/Tubercule_articulaire_du_processus_zygomatique_de_l'os_temporal/Tubercule_articulaire_du_processus_zygomatique_de_l'os_temporal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tubercule_articulaire_du_processus_zygomatique_de_l%27os_temporal</t>
+          <t>Tubercule_articulaire_du_processus_zygomatique_de_l'os_temporal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tubercule articulaire du processus zygomatique de l'os temporal (ou condyle du temporal) est une éminence osseuse de l'os temporal.
 C'est une éminence arrondie sur la face inférieure de la base du processus zygomatique et sur la surface externe de l'écaille de l'os temporal. Ce tubercule forme la limite avant de la fosse mandibulaire et est recouvert de cartilage.
